--- a/doc/风控线上策略说明.xlsx
+++ b/doc/风控线上策略说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16260"/>
+    <workbookView windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>序号</t>
   </si>
@@ -28,40 +28,40 @@
     <t>数据纬度</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>白名单</t>
   </si>
   <si>
-    <t>状态</t>
-  </si>
-  <si>
     <t>订单是负毛利</t>
   </si>
   <si>
-    <t>price-supplerprice&lt;0</t>
+    <t>price-supplerprice-couponMoney&lt;0</t>
   </si>
   <si>
     <t>实时</t>
   </si>
   <si>
+    <t>已上线</t>
+  </si>
+  <si>
     <t>白名单为充值话费，商品id为：745917,745930,745861</t>
   </si>
   <si>
-    <t>已上线</t>
-  </si>
-  <si>
-    <t>负毛利24小时单数超过阈值[20单]</t>
-  </si>
-  <si>
-    <t>price-supplerprice&lt;0 &amp;&amp; 商品件数&gt;20</t>
+    <t>负毛利24小时单数超过阈值[200单]</t>
+  </si>
+  <si>
+    <t>price-supplerprice&lt;0 &amp;&amp; 商品件数&gt;200</t>
   </si>
   <si>
     <t>实时+flink</t>
   </si>
   <si>
-    <t>负毛利24小时利润超过阈值[-100元]</t>
-  </si>
-  <si>
-    <t>price-supplerprice&lt;0 &amp;&amp; 金额&gt;100</t>
+    <t>负毛利24小时利润超过阈值[-1000元]</t>
+  </si>
+  <si>
+    <t>price-supplerprice&lt;0 &amp;&amp; 金额&gt;1000</t>
   </si>
   <si>
     <t xml:space="preserve">单个订单负毛利超过阈值[-100元] </t>
@@ -106,28 +106,22 @@
     <t>单一订单的优惠券金额/售价*件数&gt;25%的订单，并且优惠券&gt;10元</t>
   </si>
   <si>
-    <t>优惠券金额现在是主订单金额，月底等待cms修复</t>
-  </si>
-  <si>
-    <t>前端风控按团长+团期+商品规格统计实时售卖件数辅助前端风控</t>
-  </si>
-  <si>
-    <t>订单含优惠券金额后负毛利</t>
-  </si>
-  <si>
-    <t>开发中</t>
-  </si>
-  <si>
-    <t>大宗商品交易异常监控</t>
-  </si>
-  <si>
-    <t>每个团期的商品销售数量超过阈值禁止售卖[1000]</t>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>每个团期的负毛利商品销售数量超过阈值[100件]</t>
+  </si>
+  <si>
+    <t>price-supplerprice&lt;0 &amp;&amp; sht:agbwebapp:merchandiseSale:groupon:132338:partnerId:911064(quantity字段)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每个团期的商品销售数量超过阈值禁止售卖[1000] </t>
   </si>
   <si>
     <t>sht:agbwebapp:merchandiseSale:groupon:132338:partnerId:911064(quantity字段)</t>
   </si>
   <si>
-    <t>每个团期的商品销售数量超过阈值禁止用券[200]</t>
+    <t xml:space="preserve">每个团期的商品销售数量超过阈值禁止用券[200] </t>
   </si>
 </sst>
 </file>
@@ -135,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,31 +144,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,8 +224,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,6 +242,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -203,76 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,181 +296,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +495,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,26 +528,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +562,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -598,157 +592,160 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1069,18 +1066,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.16071428571429" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="61.6607142857143" customWidth="1"/>
-    <col min="3" max="3" width="65.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="63.6875" customWidth="1"/>
+    <col min="3" max="3" width="37.3928571428571" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="73.6607142857143" customWidth="1"/>
+    <col min="6" max="6" width="51.4821428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1096,10 +1093,10 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1116,10 +1113,10 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1136,10 +1133,10 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1156,10 +1153,10 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1176,14 +1173,14 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1193,11 +1190,11 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1210,8 +1207,8 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>10</v>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1227,7 +1224,10 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1244,7 +1244,10 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1261,7 +1264,10 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1278,7 +1284,10 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1289,10 +1298,13 @@
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1303,72 +1315,56 @@
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="F15" t="s">
         <v>10</v>
       </c>
     </row>
